--- a/Table/Table_xls/f福利奖励/签到奖励.xlsx
+++ b/Table/Table_xls/f福利奖励/签到奖励.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,23 +196,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,40 +215,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,21 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,17 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,23 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,9 +269,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,13 +367,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,91 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,37 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,39 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +617,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -658,153 +643,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B367"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>

--- a/Table/Table_xls/f福利奖励/签到奖励.xlsx
+++ b/Table/Table_xls/f福利奖励/签到奖励.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 货币类型ID
 1，银币
 2，金币
@@ -47,7 +46,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -62,11 +60,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 无效</t>
         </r>
       </text>
@@ -76,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -161,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,6 +194,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,34 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +223,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,23 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -299,6 +319,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -307,7 +335,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,35 +349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -367,25 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,109 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +411,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,19 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,21 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -586,16 +573,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,8 +605,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,8 +629,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,168 +660,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,6 +876,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1199,25 +1206,24 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="4" max="5" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.13888888888889" style="1"/>
+    <col min="4" max="5" width="9.13888888888889" style="2"/>
     <col min="7" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.287037037037" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1254,12 +1260,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -1279,10 +1285,10 @@
       <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1305,10 +1311,10 @@
       <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -1328,10 +1334,10 @@
       <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
@@ -1351,10 +1357,10 @@
       <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
@@ -1377,10 +1383,10 @@
       <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
@@ -1400,10 +1406,10 @@
       <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
@@ -1426,10 +1432,10 @@
       <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
@@ -1449,10 +1455,10 @@
       <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
@@ -1472,10 +1478,10 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
@@ -1498,10 +1504,10 @@
       <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
@@ -1521,10 +1527,10 @@
       <c r="C13" s="8">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
@@ -1547,10 +1553,10 @@
       <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
@@ -1570,10 +1576,10 @@
       <c r="C15" s="8">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
@@ -1593,10 +1599,10 @@
       <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1619,10 +1625,10 @@
       <c r="C17" s="8">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1642,10 +1648,10 @@
       <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
@@ -1668,10 +1674,10 @@
       <c r="C19" s="8">
         <v>5</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
@@ -1691,10 +1697,10 @@
       <c r="C20" s="8">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
@@ -1714,10 +1720,10 @@
       <c r="C21" s="8">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
@@ -1740,10 +1746,10 @@
       <c r="C22" s="8">
         <v>5</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
@@ -1763,10 +1769,10 @@
       <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
@@ -1789,10 +1795,10 @@
       <c r="C24" s="8">
         <v>5</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -1812,10 +1818,10 @@
       <c r="C25" s="8">
         <v>5</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
@@ -1835,10 +1841,10 @@
       <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
@@ -1861,10 +1867,10 @@
       <c r="C27" s="8">
         <v>5</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
@@ -1884,10 +1890,10 @@
       <c r="C28" s="8">
         <v>5</v>
       </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
@@ -1910,10 +1916,10 @@
       <c r="C29" s="8">
         <v>5</v>
       </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
@@ -1933,10 +1939,10 @@
       <c r="C30" s="8">
         <v>5</v>
       </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
@@ -1956,10 +1962,10 @@
       <c r="C31" s="8">
         <v>5</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
@@ -1982,10 +1988,10 @@
       <c r="C32" s="8">
         <v>5</v>
       </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
@@ -2005,10 +2011,10 @@
       <c r="C33" s="8">
         <v>5</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
@@ -2028,10 +2034,10 @@
       <c r="C34" s="8">
         <v>5</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
@@ -2054,10 +2060,10 @@
       <c r="C35" s="8">
         <v>5</v>
       </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
@@ -2077,10 +2083,10 @@
       <c r="C36" s="8">
         <v>5</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2100,10 +2106,10 @@
       <c r="C37" s="8">
         <v>5</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
@@ -2126,10 +2132,10 @@
       <c r="C38" s="8">
         <v>5</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
@@ -2149,10 +2155,10 @@
       <c r="C39" s="8">
         <v>5</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
@@ -2175,10 +2181,10 @@
       <c r="C40" s="8">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
@@ -2198,10 +2204,10 @@
       <c r="C41" s="8">
         <v>5</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
@@ -2221,10 +2227,10 @@
       <c r="C42" s="8">
         <v>5</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
@@ -2247,10 +2253,10 @@
       <c r="C43" s="8">
         <v>5</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
@@ -2270,10 +2276,10 @@
       <c r="C44" s="8">
         <v>5</v>
       </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
@@ -2296,10 +2302,10 @@
       <c r="C45" s="8">
         <v>5</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
@@ -2319,10 +2325,10 @@
       <c r="C46" s="8">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
@@ -2342,10 +2348,10 @@
       <c r="C47" s="8">
         <v>5</v>
       </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
@@ -2368,10 +2374,10 @@
       <c r="C48" s="8">
         <v>5</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
@@ -2391,10 +2397,10 @@
       <c r="C49" s="8">
         <v>5</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
@@ -2417,10 +2423,10 @@
       <c r="C50" s="8">
         <v>5</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
@@ -2440,10 +2446,10 @@
       <c r="C51" s="8">
         <v>5</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
@@ -2463,10 +2469,10 @@
       <c r="C52" s="8">
         <v>5</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
@@ -2489,10 +2495,10 @@
       <c r="C53" s="8">
         <v>5</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
@@ -2512,10 +2518,10 @@
       <c r="C54" s="8">
         <v>5</v>
       </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
@@ -2538,10 +2544,10 @@
       <c r="C55" s="8">
         <v>5</v>
       </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
@@ -2561,10 +2567,10 @@
       <c r="C56" s="8">
         <v>5</v>
       </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
@@ -2584,10 +2590,10 @@
       <c r="C57" s="8">
         <v>5</v>
       </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
@@ -2610,10 +2616,10 @@
       <c r="C58" s="8">
         <v>5</v>
       </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
@@ -2633,10 +2639,10 @@
       <c r="C59" s="8">
         <v>5</v>
       </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
@@ -2659,10 +2665,10 @@
       <c r="C60" s="8">
         <v>5</v>
       </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
@@ -2682,10 +2688,10 @@
       <c r="C61" s="8">
         <v>5</v>
       </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
@@ -2705,10 +2711,10 @@
       <c r="C62" s="8">
         <v>5</v>
       </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
@@ -2728,10 +2734,10 @@
       <c r="C63" s="8">
         <v>5</v>
       </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
@@ -2754,10 +2760,10 @@
       <c r="C64" s="8">
         <v>5</v>
       </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
@@ -2777,10 +2783,10 @@
       <c r="C65" s="8">
         <v>5</v>
       </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
@@ -2800,10 +2806,10 @@
       <c r="C66" s="8">
         <v>5</v>
       </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
@@ -2826,10 +2832,10 @@
       <c r="C67" s="8">
         <v>5</v>
       </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
@@ -2849,10 +2855,10 @@
       <c r="C68" s="8">
         <v>5</v>
       </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
@@ -2875,10 +2881,10 @@
       <c r="C69" s="8">
         <v>5</v>
       </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
@@ -2898,10 +2904,10 @@
       <c r="C70" s="8">
         <v>5</v>
       </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
@@ -2921,10 +2927,10 @@
       <c r="C71" s="8">
         <v>5</v>
       </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
@@ -2947,10 +2953,10 @@
       <c r="C72" s="8">
         <v>5</v>
       </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
@@ -2970,10 +2976,10 @@
       <c r="C73" s="8">
         <v>5</v>
       </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
@@ -2996,10 +3002,10 @@
       <c r="C74" s="8">
         <v>5</v>
       </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
@@ -3019,10 +3025,10 @@
       <c r="C75" s="8">
         <v>5</v>
       </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
@@ -3042,10 +3048,10 @@
       <c r="C76" s="8">
         <v>5</v>
       </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
@@ -3068,10 +3074,10 @@
       <c r="C77" s="8">
         <v>5</v>
       </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
@@ -3091,10 +3097,10 @@
       <c r="C78" s="8">
         <v>5</v>
       </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
@@ -3117,10 +3123,10 @@
       <c r="C79" s="8">
         <v>5</v>
       </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
@@ -3140,10 +3146,10 @@
       <c r="C80" s="8">
         <v>5</v>
       </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
@@ -3163,10 +3169,10 @@
       <c r="C81" s="8">
         <v>5</v>
       </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
@@ -3189,10 +3195,10 @@
       <c r="C82" s="8">
         <v>5</v>
       </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
@@ -3212,10 +3218,10 @@
       <c r="C83" s="8">
         <v>5</v>
       </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
@@ -3238,10 +3244,10 @@
       <c r="C84" s="8">
         <v>5</v>
       </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
@@ -3261,10 +3267,10 @@
       <c r="C85" s="8">
         <v>5</v>
       </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
@@ -3284,10 +3290,10 @@
       <c r="C86" s="8">
         <v>5</v>
       </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
@@ -3310,10 +3316,10 @@
       <c r="C87" s="8">
         <v>5</v>
       </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
@@ -3333,10 +3339,10 @@
       <c r="C88" s="8">
         <v>5</v>
       </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
@@ -3359,10 +3365,10 @@
       <c r="C89" s="8">
         <v>5</v>
       </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
@@ -3382,10 +3388,10 @@
       <c r="C90" s="8">
         <v>5</v>
       </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
@@ -3405,10 +3411,10 @@
       <c r="C91" s="8">
         <v>5</v>
       </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
@@ -3431,10 +3437,10 @@
       <c r="C92" s="8">
         <v>5</v>
       </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
@@ -3454,10 +3460,10 @@
       <c r="C93" s="8">
         <v>5</v>
       </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
@@ -3477,10 +3483,10 @@
       <c r="C94" s="8">
         <v>5</v>
       </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
@@ -3503,10 +3509,10 @@
       <c r="C95" s="8">
         <v>5</v>
       </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
@@ -3526,10 +3532,10 @@
       <c r="C96" s="8">
         <v>5</v>
       </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
@@ -3549,10 +3555,10 @@
       <c r="C97" s="8">
         <v>5</v>
       </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
@@ -3575,10 +3581,10 @@
       <c r="C98" s="8">
         <v>5</v>
       </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
@@ -3598,10 +3604,10 @@
       <c r="C99" s="8">
         <v>5</v>
       </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
@@ -3624,10 +3630,10 @@
       <c r="C100" s="8">
         <v>5</v>
       </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
@@ -3647,10 +3653,10 @@
       <c r="C101" s="8">
         <v>5</v>
       </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
@@ -3670,10 +3676,10 @@
       <c r="C102" s="8">
         <v>5</v>
       </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
@@ -3696,10 +3702,10 @@
       <c r="C103" s="8">
         <v>5</v>
       </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
@@ -3719,10 +3725,10 @@
       <c r="C104" s="8">
         <v>5</v>
       </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
@@ -3745,10 +3751,10 @@
       <c r="C105" s="8">
         <v>5</v>
       </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
@@ -3768,10 +3774,10 @@
       <c r="C106" s="8">
         <v>5</v>
       </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
@@ -3791,10 +3797,10 @@
       <c r="C107" s="8">
         <v>5</v>
       </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
@@ -3817,10 +3823,10 @@
       <c r="C108" s="8">
         <v>5</v>
       </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
@@ -3840,10 +3846,10 @@
       <c r="C109" s="8">
         <v>5</v>
       </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
@@ -3866,10 +3872,10 @@
       <c r="C110" s="8">
         <v>5</v>
       </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
@@ -3889,10 +3895,10 @@
       <c r="C111" s="8">
         <v>5</v>
       </c>
-      <c r="D111" s="2">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
@@ -3912,10 +3918,10 @@
       <c r="C112" s="8">
         <v>5</v>
       </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
@@ -3938,10 +3944,10 @@
       <c r="C113" s="8">
         <v>5</v>
       </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
@@ -3961,10 +3967,10 @@
       <c r="C114" s="8">
         <v>5</v>
       </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
@@ -3987,10 +3993,10 @@
       <c r="C115" s="8">
         <v>5</v>
       </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
@@ -4010,10 +4016,10 @@
       <c r="C116" s="8">
         <v>5</v>
       </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
@@ -4033,10 +4039,10 @@
       <c r="C117" s="8">
         <v>5</v>
       </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
@@ -4059,10 +4065,10 @@
       <c r="C118" s="8">
         <v>5</v>
       </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
@@ -4082,10 +4088,10 @@
       <c r="C119" s="8">
         <v>5</v>
       </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
@@ -4108,10 +4114,10 @@
       <c r="C120" s="8">
         <v>5</v>
       </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
@@ -4131,10 +4137,10 @@
       <c r="C121" s="8">
         <v>5</v>
       </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
@@ -4154,10 +4160,10 @@
       <c r="C122" s="8">
         <v>5</v>
       </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
@@ -4180,10 +4186,10 @@
       <c r="C123" s="8">
         <v>5</v>
       </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
@@ -4203,10 +4209,10 @@
       <c r="C124" s="8">
         <v>5</v>
       </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
@@ -4229,10 +4235,10 @@
       <c r="C125" s="8">
         <v>5</v>
       </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
@@ -4252,10 +4258,10 @@
       <c r="C126" s="8">
         <v>5</v>
       </c>
-      <c r="D126" s="2">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
@@ -4275,10 +4281,10 @@
       <c r="C127" s="8">
         <v>5</v>
       </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
@@ -4301,10 +4307,10 @@
       <c r="C128" s="8">
         <v>5</v>
       </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
@@ -4324,10 +4330,10 @@
       <c r="C129" s="8">
         <v>5</v>
       </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
@@ -4350,10 +4356,10 @@
       <c r="C130" s="8">
         <v>5</v>
       </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
@@ -4373,10 +4379,10 @@
       <c r="C131" s="8">
         <v>5</v>
       </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2">
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
@@ -4396,10 +4402,10 @@
       <c r="C132" s="8">
         <v>5</v>
       </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
@@ -4422,10 +4428,10 @@
       <c r="C133" s="8">
         <v>5</v>
       </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
@@ -4445,10 +4451,10 @@
       <c r="C134" s="8">
         <v>5</v>
       </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
@@ -4471,10 +4477,10 @@
       <c r="C135" s="8">
         <v>5</v>
       </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="2">
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
@@ -4494,10 +4500,10 @@
       <c r="C136" s="8">
         <v>5</v>
       </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
@@ -4517,10 +4523,10 @@
       <c r="C137" s="8">
         <v>5</v>
       </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="2">
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
@@ -4543,10 +4549,10 @@
       <c r="C138" s="8">
         <v>5</v>
       </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
@@ -4566,10 +4572,10 @@
       <c r="C139" s="8">
         <v>5</v>
       </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
@@ -4592,10 +4598,10 @@
       <c r="C140" s="8">
         <v>5</v>
       </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
@@ -4615,10 +4621,10 @@
       <c r="C141" s="8">
         <v>5</v>
       </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
@@ -4638,10 +4644,10 @@
       <c r="C142" s="8">
         <v>5</v>
       </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
@@ -4664,10 +4670,10 @@
       <c r="C143" s="8">
         <v>5</v>
       </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
@@ -4687,10 +4693,10 @@
       <c r="C144" s="8">
         <v>5</v>
       </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="2">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
@@ -4713,10 +4719,10 @@
       <c r="C145" s="8">
         <v>5</v>
       </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="2">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
@@ -4736,10 +4742,10 @@
       <c r="C146" s="8">
         <v>5</v>
       </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
@@ -4759,10 +4765,10 @@
       <c r="C147" s="8">
         <v>5</v>
       </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="2">
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
@@ -4785,10 +4791,10 @@
       <c r="C148" s="8">
         <v>5</v>
       </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
@@ -4808,10 +4814,10 @@
       <c r="C149" s="8">
         <v>5</v>
       </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="2">
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
@@ -4834,10 +4840,10 @@
       <c r="C150" s="8">
         <v>5</v>
       </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
@@ -4857,10 +4863,10 @@
       <c r="C151" s="8">
         <v>5</v>
       </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
@@ -4880,10 +4886,10 @@
       <c r="C152" s="8">
         <v>5</v>
       </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="2">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
@@ -4906,10 +4912,10 @@
       <c r="C153" s="8">
         <v>5</v>
       </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
@@ -4929,10 +4935,10 @@
       <c r="C154" s="8">
         <v>5</v>
       </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="2">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
@@ -4952,10 +4958,10 @@
       <c r="C155" s="8">
         <v>5</v>
       </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-      <c r="E155" s="2">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
@@ -4978,10 +4984,10 @@
       <c r="C156" s="8">
         <v>5</v>
       </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
-      <c r="E156" s="2">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
@@ -5001,10 +5007,10 @@
       <c r="C157" s="8">
         <v>5</v>
       </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-      <c r="E157" s="2">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
       <c r="F157">
@@ -5024,10 +5030,10 @@
       <c r="C158" s="8">
         <v>5</v>
       </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
@@ -5050,10 +5056,10 @@
       <c r="C159" s="8">
         <v>5</v>
       </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="2">
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
@@ -5073,10 +5079,10 @@
       <c r="C160" s="8">
         <v>5</v>
       </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="2">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
@@ -5099,10 +5105,10 @@
       <c r="C161" s="8">
         <v>5</v>
       </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="2">
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
@@ -5122,10 +5128,10 @@
       <c r="C162" s="8">
         <v>5</v>
       </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
@@ -5145,10 +5151,10 @@
       <c r="C163" s="8">
         <v>5</v>
       </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="2">
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
@@ -5171,10 +5177,10 @@
       <c r="C164" s="8">
         <v>5</v>
       </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
@@ -5194,10 +5200,10 @@
       <c r="C165" s="8">
         <v>5</v>
       </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
@@ -5220,10 +5226,10 @@
       <c r="C166" s="8">
         <v>5</v>
       </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="2">
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
@@ -5243,10 +5249,10 @@
       <c r="C167" s="8">
         <v>5</v>
       </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="2">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
@@ -5266,10 +5272,10 @@
       <c r="C168" s="8">
         <v>5</v>
       </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
@@ -5292,10 +5298,10 @@
       <c r="C169" s="8">
         <v>5</v>
       </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
@@ -5315,10 +5321,10 @@
       <c r="C170" s="8">
         <v>5</v>
       </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
@@ -5341,10 +5347,10 @@
       <c r="C171" s="8">
         <v>5</v>
       </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="2">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
@@ -5364,10 +5370,10 @@
       <c r="C172" s="8">
         <v>5</v>
       </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="2">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
@@ -5387,10 +5393,10 @@
       <c r="C173" s="8">
         <v>5</v>
       </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="2">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
@@ -5413,10 +5419,10 @@
       <c r="C174" s="8">
         <v>5</v>
       </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
@@ -5436,10 +5442,10 @@
       <c r="C175" s="8">
         <v>5</v>
       </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="2">
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
@@ -5462,10 +5468,10 @@
       <c r="C176" s="8">
         <v>5</v>
       </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
@@ -5485,10 +5491,10 @@
       <c r="C177" s="8">
         <v>5</v>
       </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="2">
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
@@ -5508,10 +5514,10 @@
       <c r="C178" s="8">
         <v>5</v>
       </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="2">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
@@ -5534,10 +5540,10 @@
       <c r="C179" s="8">
         <v>5</v>
       </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="2">
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
@@ -5557,10 +5563,10 @@
       <c r="C180" s="8">
         <v>5</v>
       </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="2">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
@@ -5583,10 +5589,10 @@
       <c r="C181" s="8">
         <v>5</v>
       </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="2">
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
@@ -5606,10 +5612,10 @@
       <c r="C182" s="8">
         <v>5</v>
       </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="2">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
         <v>0</v>
       </c>
       <c r="F182">
@@ -5629,10 +5635,10 @@
       <c r="C183" s="8">
         <v>5</v>
       </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="2">
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
@@ -5655,10 +5661,10 @@
       <c r="C184" s="8">
         <v>5</v>
       </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="2">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
@@ -5678,10 +5684,10 @@
       <c r="C185" s="8">
         <v>5</v>
       </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="2">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
@@ -5704,10 +5710,10 @@
       <c r="C186" s="8">
         <v>5</v>
       </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
@@ -5727,10 +5733,10 @@
       <c r="C187" s="8">
         <v>5</v>
       </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="2">
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
         <v>0</v>
       </c>
       <c r="F187">
@@ -5750,10 +5756,10 @@
       <c r="C188" s="8">
         <v>5</v>
       </c>
-      <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="2">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
@@ -5776,10 +5782,10 @@
       <c r="C189" s="8">
         <v>5</v>
       </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="2">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
@@ -5799,10 +5805,10 @@
       <c r="C190" s="8">
         <v>5</v>
       </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="2">
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
@@ -5825,10 +5831,10 @@
       <c r="C191" s="8">
         <v>5</v>
       </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="2">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
@@ -5848,10 +5854,10 @@
       <c r="C192" s="8">
         <v>5</v>
       </c>
-      <c r="D192" s="2">
-        <v>0</v>
-      </c>
-      <c r="E192" s="2">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
@@ -5871,10 +5877,10 @@
       <c r="C193" s="8">
         <v>5</v>
       </c>
-      <c r="D193" s="2">
-        <v>0</v>
-      </c>
-      <c r="E193" s="2">
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
@@ -5897,10 +5903,10 @@
       <c r="C194" s="8">
         <v>5</v>
       </c>
-      <c r="D194" s="2">
-        <v>0</v>
-      </c>
-      <c r="E194" s="2">
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
@@ -5920,10 +5926,10 @@
       <c r="C195" s="8">
         <v>5</v>
       </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="2">
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
@@ -5946,10 +5952,10 @@
       <c r="C196" s="8">
         <v>5</v>
       </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="2">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
@@ -5969,10 +5975,10 @@
       <c r="C197" s="8">
         <v>5</v>
       </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="2">
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
@@ -5992,10 +5998,10 @@
       <c r="C198" s="8">
         <v>5</v>
       </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2">
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
         <v>0</v>
       </c>
       <c r="F198">
@@ -6018,10 +6024,10 @@
       <c r="C199" s="8">
         <v>5</v>
       </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="2">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
@@ -6041,10 +6047,10 @@
       <c r="C200" s="8">
         <v>5</v>
       </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="2">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
@@ -6067,10 +6073,10 @@
       <c r="C201" s="8">
         <v>5</v>
       </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="2">
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
@@ -6090,10 +6096,10 @@
       <c r="C202" s="8">
         <v>5</v>
       </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="2">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
@@ -6113,10 +6119,10 @@
       <c r="C203" s="8">
         <v>5</v>
       </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="2">
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
@@ -6139,10 +6145,10 @@
       <c r="C204" s="8">
         <v>5</v>
       </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="2">
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
         <v>0</v>
       </c>
       <c r="F204">
@@ -6162,10 +6168,10 @@
       <c r="C205" s="8">
         <v>5</v>
       </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="2">
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
@@ -6188,10 +6194,10 @@
       <c r="C206" s="8">
         <v>5</v>
       </c>
-      <c r="D206" s="2">
-        <v>0</v>
-      </c>
-      <c r="E206" s="2">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
         <v>0</v>
       </c>
       <c r="F206">
@@ -6211,10 +6217,10 @@
       <c r="C207" s="8">
         <v>5</v>
       </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="2">
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
         <v>0</v>
       </c>
       <c r="F207">
@@ -6234,10 +6240,10 @@
       <c r="C208" s="8">
         <v>5</v>
       </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="2">
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
@@ -6260,10 +6266,10 @@
       <c r="C209" s="8">
         <v>5</v>
       </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="2">
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
         <v>0</v>
       </c>
       <c r="F209">
@@ -6283,10 +6289,10 @@
       <c r="C210" s="8">
         <v>5</v>
       </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2">
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
@@ -6309,10 +6315,10 @@
       <c r="C211" s="8">
         <v>5</v>
       </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="2">
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
         <v>0</v>
       </c>
       <c r="F211">
@@ -6332,10 +6338,10 @@
       <c r="C212" s="8">
         <v>5</v>
       </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="2">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
@@ -6355,10 +6361,10 @@
       <c r="C213" s="8">
         <v>5</v>
       </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="2">
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
@@ -6381,10 +6387,10 @@
       <c r="C214" s="8">
         <v>5</v>
       </c>
-      <c r="D214" s="2">
-        <v>0</v>
-      </c>
-      <c r="E214" s="2">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
         <v>0</v>
       </c>
       <c r="F214">
@@ -6404,10 +6410,10 @@
       <c r="C215" s="8">
         <v>5</v>
       </c>
-      <c r="D215" s="2">
-        <v>0</v>
-      </c>
-      <c r="E215" s="2">
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
@@ -6427,10 +6433,10 @@
       <c r="C216" s="8">
         <v>5</v>
       </c>
-      <c r="D216" s="2">
-        <v>0</v>
-      </c>
-      <c r="E216" s="2">
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
         <v>0</v>
       </c>
       <c r="F216">
@@ -6453,10 +6459,10 @@
       <c r="C217" s="8">
         <v>5</v>
       </c>
-      <c r="D217" s="2">
-        <v>0</v>
-      </c>
-      <c r="E217" s="2">
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
@@ -6476,10 +6482,10 @@
       <c r="C218" s="8">
         <v>5</v>
       </c>
-      <c r="D218" s="2">
-        <v>0</v>
-      </c>
-      <c r="E218" s="2">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
@@ -6499,10 +6505,10 @@
       <c r="C219" s="8">
         <v>5</v>
       </c>
-      <c r="D219" s="2">
-        <v>0</v>
-      </c>
-      <c r="E219" s="2">
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
@@ -6525,10 +6531,10 @@
       <c r="C220" s="8">
         <v>5</v>
       </c>
-      <c r="D220" s="2">
-        <v>0</v>
-      </c>
-      <c r="E220" s="2">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
         <v>0</v>
       </c>
       <c r="F220">
@@ -6548,10 +6554,10 @@
       <c r="C221" s="8">
         <v>5</v>
       </c>
-      <c r="D221" s="2">
-        <v>0</v>
-      </c>
-      <c r="E221" s="2">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
@@ -6574,10 +6580,10 @@
       <c r="C222" s="8">
         <v>5</v>
       </c>
-      <c r="D222" s="2">
-        <v>0</v>
-      </c>
-      <c r="E222" s="2">
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
@@ -6597,10 +6603,10 @@
       <c r="C223" s="8">
         <v>5</v>
       </c>
-      <c r="D223" s="2">
-        <v>0</v>
-      </c>
-      <c r="E223" s="2">
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
@@ -6620,10 +6626,10 @@
       <c r="C224" s="8">
         <v>5</v>
       </c>
-      <c r="D224" s="2">
-        <v>0</v>
-      </c>
-      <c r="E224" s="2">
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
@@ -6646,10 +6652,10 @@
       <c r="C225" s="8">
         <v>5</v>
       </c>
-      <c r="D225" s="2">
-        <v>0</v>
-      </c>
-      <c r="E225" s="2">
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
         <v>0</v>
       </c>
       <c r="F225">
@@ -6669,10 +6675,10 @@
       <c r="C226" s="8">
         <v>5</v>
       </c>
-      <c r="D226" s="2">
-        <v>0</v>
-      </c>
-      <c r="E226" s="2">
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
         <v>0</v>
       </c>
       <c r="F226">
@@ -6695,10 +6701,10 @@
       <c r="C227" s="8">
         <v>5</v>
       </c>
-      <c r="D227" s="2">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2">
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
         <v>0</v>
       </c>
       <c r="F227">
@@ -6718,10 +6724,10 @@
       <c r="C228" s="8">
         <v>5</v>
       </c>
-      <c r="D228" s="2">
-        <v>0</v>
-      </c>
-      <c r="E228" s="2">
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
         <v>0</v>
       </c>
       <c r="F228">
@@ -6741,10 +6747,10 @@
       <c r="C229" s="8">
         <v>5</v>
       </c>
-      <c r="D229" s="2">
-        <v>0</v>
-      </c>
-      <c r="E229" s="2">
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
@@ -6767,10 +6773,10 @@
       <c r="C230" s="8">
         <v>5</v>
       </c>
-      <c r="D230" s="2">
-        <v>0</v>
-      </c>
-      <c r="E230" s="2">
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
         <v>0</v>
       </c>
       <c r="F230">
@@ -6790,10 +6796,10 @@
       <c r="C231" s="8">
         <v>5</v>
       </c>
-      <c r="D231" s="2">
-        <v>0</v>
-      </c>
-      <c r="E231" s="2">
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
         <v>0</v>
       </c>
       <c r="F231">
@@ -6816,10 +6822,10 @@
       <c r="C232" s="8">
         <v>5</v>
       </c>
-      <c r="D232" s="2">
-        <v>0</v>
-      </c>
-      <c r="E232" s="2">
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
         <v>0</v>
       </c>
       <c r="F232">
@@ -6839,10 +6845,10 @@
       <c r="C233" s="8">
         <v>5</v>
       </c>
-      <c r="D233" s="2">
-        <v>0</v>
-      </c>
-      <c r="E233" s="2">
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
@@ -6862,10 +6868,10 @@
       <c r="C234" s="8">
         <v>5</v>
       </c>
-      <c r="D234" s="2">
-        <v>0</v>
-      </c>
-      <c r="E234" s="2">
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
         <v>0</v>
       </c>
       <c r="F234">
@@ -6888,10 +6894,10 @@
       <c r="C235" s="8">
         <v>5</v>
       </c>
-      <c r="D235" s="2">
-        <v>0</v>
-      </c>
-      <c r="E235" s="2">
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
         <v>0</v>
       </c>
       <c r="F235">
@@ -6911,10 +6917,10 @@
       <c r="C236" s="8">
         <v>5</v>
       </c>
-      <c r="D236" s="2">
-        <v>0</v>
-      </c>
-      <c r="E236" s="2">
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
         <v>0</v>
       </c>
       <c r="F236">
@@ -6937,10 +6943,10 @@
       <c r="C237" s="8">
         <v>5</v>
       </c>
-      <c r="D237" s="2">
-        <v>0</v>
-      </c>
-      <c r="E237" s="2">
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
         <v>0</v>
       </c>
       <c r="F237">
@@ -6960,10 +6966,10 @@
       <c r="C238" s="8">
         <v>5</v>
       </c>
-      <c r="D238" s="2">
-        <v>0</v>
-      </c>
-      <c r="E238" s="2">
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
         <v>0</v>
       </c>
       <c r="F238">
@@ -6983,10 +6989,10 @@
       <c r="C239" s="8">
         <v>5</v>
       </c>
-      <c r="D239" s="2">
-        <v>0</v>
-      </c>
-      <c r="E239" s="2">
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
         <v>0</v>
       </c>
       <c r="F239">
@@ -7009,10 +7015,10 @@
       <c r="C240" s="8">
         <v>5</v>
       </c>
-      <c r="D240" s="2">
-        <v>0</v>
-      </c>
-      <c r="E240" s="2">
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
         <v>0</v>
       </c>
       <c r="F240">
@@ -7032,10 +7038,10 @@
       <c r="C241" s="8">
         <v>5</v>
       </c>
-      <c r="D241" s="2">
-        <v>0</v>
-      </c>
-      <c r="E241" s="2">
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
         <v>0</v>
       </c>
       <c r="F241">
@@ -7058,10 +7064,10 @@
       <c r="C242" s="8">
         <v>5</v>
       </c>
-      <c r="D242" s="2">
-        <v>0</v>
-      </c>
-      <c r="E242" s="2">
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
         <v>0</v>
       </c>
       <c r="F242">
@@ -7081,10 +7087,10 @@
       <c r="C243" s="8">
         <v>5</v>
       </c>
-      <c r="D243" s="2">
-        <v>0</v>
-      </c>
-      <c r="E243" s="2">
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
         <v>0</v>
       </c>
       <c r="F243">
@@ -7104,10 +7110,10 @@
       <c r="C244" s="8">
         <v>5</v>
       </c>
-      <c r="D244" s="2">
-        <v>0</v>
-      </c>
-      <c r="E244" s="2">
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
         <v>0</v>
       </c>
       <c r="F244">
@@ -7130,10 +7136,10 @@
       <c r="C245" s="8">
         <v>5</v>
       </c>
-      <c r="D245" s="2">
-        <v>0</v>
-      </c>
-      <c r="E245" s="2">
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
         <v>0</v>
       </c>
       <c r="F245">
@@ -7153,10 +7159,10 @@
       <c r="C246" s="8">
         <v>5</v>
       </c>
-      <c r="D246" s="2">
-        <v>0</v>
-      </c>
-      <c r="E246" s="2">
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
         <v>0</v>
       </c>
       <c r="F246">
@@ -7176,10 +7182,10 @@
       <c r="C247" s="8">
         <v>5</v>
       </c>
-      <c r="D247" s="2">
-        <v>0</v>
-      </c>
-      <c r="E247" s="2">
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
         <v>0</v>
       </c>
       <c r="F247">
@@ -7202,10 +7208,10 @@
       <c r="C248" s="8">
         <v>5</v>
       </c>
-      <c r="D248" s="2">
-        <v>0</v>
-      </c>
-      <c r="E248" s="2">
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
         <v>0</v>
       </c>
       <c r="F248">
@@ -7225,10 +7231,10 @@
       <c r="C249" s="8">
         <v>5</v>
       </c>
-      <c r="D249" s="2">
-        <v>0</v>
-      </c>
-      <c r="E249" s="2">
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
         <v>0</v>
       </c>
       <c r="F249">
@@ -7248,10 +7254,10 @@
       <c r="C250" s="8">
         <v>5</v>
       </c>
-      <c r="D250" s="2">
-        <v>0</v>
-      </c>
-      <c r="E250" s="2">
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
@@ -7274,10 +7280,10 @@
       <c r="C251" s="8">
         <v>5</v>
       </c>
-      <c r="D251" s="2">
-        <v>0</v>
-      </c>
-      <c r="E251" s="2">
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
         <v>0</v>
       </c>
       <c r="F251">
@@ -7297,10 +7303,10 @@
       <c r="C252" s="8">
         <v>5</v>
       </c>
-      <c r="D252" s="2">
-        <v>0</v>
-      </c>
-      <c r="E252" s="2">
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
         <v>0</v>
       </c>
       <c r="F252">
@@ -7323,10 +7329,10 @@
       <c r="C253" s="8">
         <v>5</v>
       </c>
-      <c r="D253" s="2">
-        <v>0</v>
-      </c>
-      <c r="E253" s="2">
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
         <v>0</v>
       </c>
       <c r="F253">
@@ -7346,10 +7352,10 @@
       <c r="C254" s="8">
         <v>5</v>
       </c>
-      <c r="D254" s="2">
-        <v>0</v>
-      </c>
-      <c r="E254" s="2">
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
         <v>0</v>
       </c>
       <c r="F254">
@@ -7369,10 +7375,10 @@
       <c r="C255" s="8">
         <v>5</v>
       </c>
-      <c r="D255" s="2">
-        <v>0</v>
-      </c>
-      <c r="E255" s="2">
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
         <v>0</v>
       </c>
       <c r="F255">
@@ -7395,10 +7401,10 @@
       <c r="C256" s="8">
         <v>5</v>
       </c>
-      <c r="D256" s="2">
-        <v>0</v>
-      </c>
-      <c r="E256" s="2">
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
         <v>0</v>
       </c>
       <c r="F256">
@@ -7418,10 +7424,10 @@
       <c r="C257" s="8">
         <v>5</v>
       </c>
-      <c r="D257" s="2">
-        <v>0</v>
-      </c>
-      <c r="E257" s="2">
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
         <v>0</v>
       </c>
       <c r="F257">
@@ -7444,10 +7450,10 @@
       <c r="C258" s="8">
         <v>5</v>
       </c>
-      <c r="D258" s="2">
-        <v>0</v>
-      </c>
-      <c r="E258" s="2">
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
         <v>0</v>
       </c>
       <c r="F258">
@@ -7467,10 +7473,10 @@
       <c r="C259" s="8">
         <v>5</v>
       </c>
-      <c r="D259" s="2">
-        <v>0</v>
-      </c>
-      <c r="E259" s="2">
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
         <v>0</v>
       </c>
       <c r="F259">
@@ -7490,10 +7496,10 @@
       <c r="C260" s="8">
         <v>5</v>
       </c>
-      <c r="D260" s="2">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2">
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
         <v>0</v>
       </c>
       <c r="F260">
@@ -7516,10 +7522,10 @@
       <c r="C261" s="8">
         <v>5</v>
       </c>
-      <c r="D261" s="2">
-        <v>0</v>
-      </c>
-      <c r="E261" s="2">
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
         <v>0</v>
       </c>
       <c r="F261">
@@ -7539,10 +7545,10 @@
       <c r="C262" s="8">
         <v>5</v>
       </c>
-      <c r="D262" s="2">
-        <v>0</v>
-      </c>
-      <c r="E262" s="2">
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
         <v>0</v>
       </c>
       <c r="F262">
@@ -7565,10 +7571,10 @@
       <c r="C263" s="8">
         <v>5</v>
       </c>
-      <c r="D263" s="2">
-        <v>0</v>
-      </c>
-      <c r="E263" s="2">
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
         <v>0</v>
       </c>
       <c r="F263">
@@ -7588,10 +7594,10 @@
       <c r="C264" s="8">
         <v>5</v>
       </c>
-      <c r="D264" s="2">
-        <v>0</v>
-      </c>
-      <c r="E264" s="2">
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
         <v>0</v>
       </c>
       <c r="F264">
@@ -7611,10 +7617,10 @@
       <c r="C265" s="8">
         <v>5</v>
       </c>
-      <c r="D265" s="2">
-        <v>0</v>
-      </c>
-      <c r="E265" s="2">
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
         <v>0</v>
       </c>
       <c r="F265">
@@ -7637,10 +7643,10 @@
       <c r="C266" s="8">
         <v>5</v>
       </c>
-      <c r="D266" s="2">
-        <v>0</v>
-      </c>
-      <c r="E266" s="2">
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
         <v>0</v>
       </c>
       <c r="F266">
@@ -7660,10 +7666,10 @@
       <c r="C267" s="8">
         <v>5</v>
       </c>
-      <c r="D267" s="2">
-        <v>0</v>
-      </c>
-      <c r="E267" s="2">
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
         <v>0</v>
       </c>
       <c r="F267">
@@ -7686,10 +7692,10 @@
       <c r="C268" s="8">
         <v>5</v>
       </c>
-      <c r="D268" s="2">
-        <v>0</v>
-      </c>
-      <c r="E268" s="2">
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
         <v>0</v>
       </c>
       <c r="F268">
@@ -7709,10 +7715,10 @@
       <c r="C269" s="8">
         <v>5</v>
       </c>
-      <c r="D269" s="2">
-        <v>0</v>
-      </c>
-      <c r="E269" s="2">
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
         <v>0</v>
       </c>
       <c r="F269">
@@ -7732,10 +7738,10 @@
       <c r="C270" s="8">
         <v>5</v>
       </c>
-      <c r="D270" s="2">
-        <v>0</v>
-      </c>
-      <c r="E270" s="2">
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
         <v>0</v>
       </c>
       <c r="F270">
@@ -7758,10 +7764,10 @@
       <c r="C271" s="8">
         <v>5</v>
       </c>
-      <c r="D271" s="2">
-        <v>0</v>
-      </c>
-      <c r="E271" s="2">
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
         <v>0</v>
       </c>
       <c r="F271">
@@ -7781,10 +7787,10 @@
       <c r="C272" s="8">
         <v>5</v>
       </c>
-      <c r="D272" s="2">
-        <v>0</v>
-      </c>
-      <c r="E272" s="2">
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
         <v>0</v>
       </c>
       <c r="F272">
@@ -7807,10 +7813,10 @@
       <c r="C273" s="8">
         <v>5</v>
       </c>
-      <c r="D273" s="2">
-        <v>0</v>
-      </c>
-      <c r="E273" s="2">
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
         <v>0</v>
       </c>
       <c r="F273">
@@ -7830,10 +7836,10 @@
       <c r="C274" s="8">
         <v>5</v>
       </c>
-      <c r="D274" s="2">
-        <v>0</v>
-      </c>
-      <c r="E274" s="2">
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
         <v>0</v>
       </c>
       <c r="F274">
@@ -7853,10 +7859,10 @@
       <c r="C275" s="8">
         <v>5</v>
       </c>
-      <c r="D275" s="2">
-        <v>0</v>
-      </c>
-      <c r="E275" s="2">
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
         <v>0</v>
       </c>
       <c r="F275">
@@ -7879,10 +7885,10 @@
       <c r="C276" s="8">
         <v>5</v>
       </c>
-      <c r="D276" s="2">
-        <v>0</v>
-      </c>
-      <c r="E276" s="2">
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
         <v>0</v>
       </c>
       <c r="F276">
@@ -7902,10 +7908,10 @@
       <c r="C277" s="8">
         <v>5</v>
       </c>
-      <c r="D277" s="2">
-        <v>0</v>
-      </c>
-      <c r="E277" s="2">
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
         <v>0</v>
       </c>
       <c r="F277">
@@ -7928,10 +7934,10 @@
       <c r="C278" s="8">
         <v>5</v>
       </c>
-      <c r="D278" s="2">
-        <v>0</v>
-      </c>
-      <c r="E278" s="2">
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
         <v>0</v>
       </c>
       <c r="F278">
@@ -7951,10 +7957,10 @@
       <c r="C279" s="8">
         <v>5</v>
       </c>
-      <c r="D279" s="2">
-        <v>0</v>
-      </c>
-      <c r="E279" s="2">
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
         <v>0</v>
       </c>
       <c r="F279">
@@ -7974,10 +7980,10 @@
       <c r="C280" s="8">
         <v>5</v>
       </c>
-      <c r="D280" s="2">
-        <v>0</v>
-      </c>
-      <c r="E280" s="2">
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
         <v>0</v>
       </c>
       <c r="F280">
@@ -8000,10 +8006,10 @@
       <c r="C281" s="8">
         <v>5</v>
       </c>
-      <c r="D281" s="2">
-        <v>0</v>
-      </c>
-      <c r="E281" s="2">
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
         <v>0</v>
       </c>
       <c r="F281">
@@ -8023,10 +8029,10 @@
       <c r="C282" s="8">
         <v>5</v>
       </c>
-      <c r="D282" s="2">
-        <v>0</v>
-      </c>
-      <c r="E282" s="2">
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
         <v>0</v>
       </c>
       <c r="F282">
@@ -8049,10 +8055,10 @@
       <c r="C283" s="8">
         <v>5</v>
       </c>
-      <c r="D283" s="2">
-        <v>0</v>
-      </c>
-      <c r="E283" s="2">
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
         <v>0</v>
       </c>
       <c r="F283">
@@ -8072,10 +8078,10 @@
       <c r="C284" s="8">
         <v>5</v>
       </c>
-      <c r="D284" s="2">
-        <v>0</v>
-      </c>
-      <c r="E284" s="2">
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
         <v>0</v>
       </c>
       <c r="F284">
@@ -8095,10 +8101,10 @@
       <c r="C285" s="8">
         <v>5</v>
       </c>
-      <c r="D285" s="2">
-        <v>0</v>
-      </c>
-      <c r="E285" s="2">
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
         <v>0</v>
       </c>
       <c r="F285">
@@ -8121,10 +8127,10 @@
       <c r="C286" s="8">
         <v>5</v>
       </c>
-      <c r="D286" s="2">
-        <v>0</v>
-      </c>
-      <c r="E286" s="2">
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
         <v>0</v>
       </c>
       <c r="F286">
@@ -8144,10 +8150,10 @@
       <c r="C287" s="8">
         <v>5</v>
       </c>
-      <c r="D287" s="2">
-        <v>0</v>
-      </c>
-      <c r="E287" s="2">
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
         <v>0</v>
       </c>
       <c r="F287">
@@ -8170,10 +8176,10 @@
       <c r="C288" s="8">
         <v>5</v>
       </c>
-      <c r="D288" s="2">
-        <v>0</v>
-      </c>
-      <c r="E288" s="2">
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
         <v>0</v>
       </c>
       <c r="F288">
@@ -8193,10 +8199,10 @@
       <c r="C289" s="8">
         <v>5</v>
       </c>
-      <c r="D289" s="2">
-        <v>0</v>
-      </c>
-      <c r="E289" s="2">
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
         <v>0</v>
       </c>
       <c r="F289">
@@ -8216,10 +8222,10 @@
       <c r="C290" s="8">
         <v>5</v>
       </c>
-      <c r="D290" s="2">
-        <v>0</v>
-      </c>
-      <c r="E290" s="2">
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
         <v>0</v>
       </c>
       <c r="F290">
@@ -8242,10 +8248,10 @@
       <c r="C291" s="8">
         <v>5</v>
       </c>
-      <c r="D291" s="2">
-        <v>0</v>
-      </c>
-      <c r="E291" s="2">
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
         <v>0</v>
       </c>
       <c r="F291">
@@ -8265,10 +8271,10 @@
       <c r="C292" s="8">
         <v>5</v>
       </c>
-      <c r="D292" s="2">
-        <v>0</v>
-      </c>
-      <c r="E292" s="2">
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
         <v>0</v>
       </c>
       <c r="F292">
@@ -8291,10 +8297,10 @@
       <c r="C293" s="8">
         <v>5</v>
       </c>
-      <c r="D293" s="2">
-        <v>0</v>
-      </c>
-      <c r="E293" s="2">
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
         <v>0</v>
       </c>
       <c r="F293">
@@ -8314,10 +8320,10 @@
       <c r="C294" s="8">
         <v>5</v>
       </c>
-      <c r="D294" s="2">
-        <v>0</v>
-      </c>
-      <c r="E294" s="2">
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
         <v>0</v>
       </c>
       <c r="F294">
@@ -8337,10 +8343,10 @@
       <c r="C295" s="8">
         <v>5</v>
       </c>
-      <c r="D295" s="2">
-        <v>0</v>
-      </c>
-      <c r="E295" s="2">
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
         <v>0</v>
       </c>
       <c r="F295">
@@ -8363,10 +8369,10 @@
       <c r="C296" s="8">
         <v>5</v>
       </c>
-      <c r="D296" s="2">
-        <v>0</v>
-      </c>
-      <c r="E296" s="2">
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
         <v>0</v>
       </c>
       <c r="F296">
@@ -8386,10 +8392,10 @@
       <c r="C297" s="8">
         <v>5</v>
       </c>
-      <c r="D297" s="2">
-        <v>0</v>
-      </c>
-      <c r="E297" s="2">
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
         <v>0</v>
       </c>
       <c r="F297">
@@ -8412,10 +8418,10 @@
       <c r="C298" s="8">
         <v>5</v>
       </c>
-      <c r="D298" s="2">
-        <v>0</v>
-      </c>
-      <c r="E298" s="2">
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
         <v>0</v>
       </c>
       <c r="F298">
@@ -8435,10 +8441,10 @@
       <c r="C299" s="8">
         <v>5</v>
       </c>
-      <c r="D299" s="2">
-        <v>0</v>
-      </c>
-      <c r="E299" s="2">
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
         <v>0</v>
       </c>
       <c r="F299">
@@ -8458,10 +8464,10 @@
       <c r="C300" s="8">
         <v>5</v>
       </c>
-      <c r="D300" s="2">
-        <v>0</v>
-      </c>
-      <c r="E300" s="2">
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
         <v>0</v>
       </c>
       <c r="F300">
@@ -8484,10 +8490,10 @@
       <c r="C301" s="8">
         <v>5</v>
       </c>
-      <c r="D301" s="2">
-        <v>0</v>
-      </c>
-      <c r="E301" s="2">
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
         <v>0</v>
       </c>
       <c r="F301">
@@ -8507,10 +8513,10 @@
       <c r="C302" s="8">
         <v>5</v>
       </c>
-      <c r="D302" s="2">
-        <v>0</v>
-      </c>
-      <c r="E302" s="2">
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
         <v>0</v>
       </c>
       <c r="F302">
@@ -8533,10 +8539,10 @@
       <c r="C303" s="8">
         <v>5</v>
       </c>
-      <c r="D303" s="2">
-        <v>0</v>
-      </c>
-      <c r="E303" s="2">
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
         <v>0</v>
       </c>
       <c r="F303">
@@ -8556,10 +8562,10 @@
       <c r="C304" s="8">
         <v>5</v>
       </c>
-      <c r="D304" s="2">
-        <v>0</v>
-      </c>
-      <c r="E304" s="2">
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
         <v>0</v>
       </c>
       <c r="F304">
@@ -8579,10 +8585,10 @@
       <c r="C305" s="8">
         <v>5</v>
       </c>
-      <c r="D305" s="2">
-        <v>0</v>
-      </c>
-      <c r="E305" s="2">
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
         <v>0</v>
       </c>
       <c r="F305">
@@ -8605,10 +8611,10 @@
       <c r="C306" s="8">
         <v>5</v>
       </c>
-      <c r="D306" s="2">
-        <v>0</v>
-      </c>
-      <c r="E306" s="2">
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
         <v>0</v>
       </c>
       <c r="F306">
@@ -8628,10 +8634,10 @@
       <c r="C307" s="8">
         <v>5</v>
       </c>
-      <c r="D307" s="2">
-        <v>0</v>
-      </c>
-      <c r="E307" s="2">
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
         <v>0</v>
       </c>
       <c r="F307">
@@ -8651,10 +8657,10 @@
       <c r="C308" s="8">
         <v>5</v>
       </c>
-      <c r="D308" s="2">
-        <v>0</v>
-      </c>
-      <c r="E308" s="2">
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
         <v>0</v>
       </c>
       <c r="F308">
@@ -8677,10 +8683,10 @@
       <c r="C309" s="8">
         <v>5</v>
       </c>
-      <c r="D309" s="2">
-        <v>0</v>
-      </c>
-      <c r="E309" s="2">
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
         <v>0</v>
       </c>
       <c r="F309">
@@ -8700,10 +8706,10 @@
       <c r="C310" s="8">
         <v>5</v>
       </c>
-      <c r="D310" s="2">
-        <v>0</v>
-      </c>
-      <c r="E310" s="2">
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
         <v>0</v>
       </c>
       <c r="F310">
@@ -8723,10 +8729,10 @@
       <c r="C311" s="8">
         <v>5</v>
       </c>
-      <c r="D311" s="2">
-        <v>0</v>
-      </c>
-      <c r="E311" s="2">
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
         <v>0</v>
       </c>
       <c r="F311">
@@ -8749,10 +8755,10 @@
       <c r="C312" s="8">
         <v>5</v>
       </c>
-      <c r="D312" s="2">
-        <v>0</v>
-      </c>
-      <c r="E312" s="2">
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
         <v>0</v>
       </c>
       <c r="F312">
@@ -8772,10 +8778,10 @@
       <c r="C313" s="8">
         <v>5</v>
       </c>
-      <c r="D313" s="2">
-        <v>0</v>
-      </c>
-      <c r="E313" s="2">
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
         <v>0</v>
       </c>
       <c r="F313">
@@ -8798,10 +8804,10 @@
       <c r="C314" s="8">
         <v>5</v>
       </c>
-      <c r="D314" s="2">
-        <v>0</v>
-      </c>
-      <c r="E314" s="2">
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
         <v>0</v>
       </c>
       <c r="F314">
@@ -8821,10 +8827,10 @@
       <c r="C315" s="8">
         <v>5</v>
       </c>
-      <c r="D315" s="2">
-        <v>0</v>
-      </c>
-      <c r="E315" s="2">
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
         <v>0</v>
       </c>
       <c r="F315">
@@ -8844,10 +8850,10 @@
       <c r="C316" s="8">
         <v>5</v>
       </c>
-      <c r="D316" s="2">
-        <v>0</v>
-      </c>
-      <c r="E316" s="2">
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
         <v>0</v>
       </c>
       <c r="F316">
@@ -8870,10 +8876,10 @@
       <c r="C317" s="8">
         <v>5</v>
       </c>
-      <c r="D317" s="2">
-        <v>0</v>
-      </c>
-      <c r="E317" s="2">
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
         <v>0</v>
       </c>
       <c r="F317">
@@ -8893,10 +8899,10 @@
       <c r="C318" s="8">
         <v>5</v>
       </c>
-      <c r="D318" s="2">
-        <v>0</v>
-      </c>
-      <c r="E318" s="2">
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
         <v>0</v>
       </c>
       <c r="F318">
@@ -8919,10 +8925,10 @@
       <c r="C319" s="8">
         <v>5</v>
       </c>
-      <c r="D319" s="2">
-        <v>0</v>
-      </c>
-      <c r="E319" s="2">
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
         <v>0</v>
       </c>
       <c r="F319">
@@ -8942,10 +8948,10 @@
       <c r="C320" s="8">
         <v>5</v>
       </c>
-      <c r="D320" s="2">
-        <v>0</v>
-      </c>
-      <c r="E320" s="2">
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
         <v>0</v>
       </c>
       <c r="F320">
@@ -8965,10 +8971,10 @@
       <c r="C321" s="8">
         <v>5</v>
       </c>
-      <c r="D321" s="2">
-        <v>0</v>
-      </c>
-      <c r="E321" s="2">
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
         <v>0</v>
       </c>
       <c r="F321">
@@ -8991,10 +8997,10 @@
       <c r="C322" s="8">
         <v>5</v>
       </c>
-      <c r="D322" s="2">
-        <v>0</v>
-      </c>
-      <c r="E322" s="2">
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
         <v>0</v>
       </c>
       <c r="F322">
@@ -9014,10 +9020,10 @@
       <c r="C323" s="8">
         <v>5</v>
       </c>
-      <c r="D323" s="2">
-        <v>0</v>
-      </c>
-      <c r="E323" s="2">
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
         <v>0</v>
       </c>
       <c r="F323">
@@ -9040,10 +9046,10 @@
       <c r="C324" s="8">
         <v>5</v>
       </c>
-      <c r="D324" s="2">
-        <v>0</v>
-      </c>
-      <c r="E324" s="2">
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
         <v>0</v>
       </c>
       <c r="F324">
@@ -9063,10 +9069,10 @@
       <c r="C325" s="8">
         <v>5</v>
       </c>
-      <c r="D325" s="2">
-        <v>0</v>
-      </c>
-      <c r="E325" s="2">
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
         <v>0</v>
       </c>
       <c r="F325">
@@ -9086,10 +9092,10 @@
       <c r="C326" s="8">
         <v>5</v>
       </c>
-      <c r="D326" s="2">
-        <v>0</v>
-      </c>
-      <c r="E326" s="2">
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
         <v>0</v>
       </c>
       <c r="F326">
@@ -9112,10 +9118,10 @@
       <c r="C327" s="8">
         <v>5</v>
       </c>
-      <c r="D327" s="2">
-        <v>0</v>
-      </c>
-      <c r="E327" s="2">
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
         <v>0</v>
       </c>
       <c r="F327">
@@ -9135,10 +9141,10 @@
       <c r="C328" s="8">
         <v>5</v>
       </c>
-      <c r="D328" s="2">
-        <v>0</v>
-      </c>
-      <c r="E328" s="2">
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
         <v>0</v>
       </c>
       <c r="F328">
@@ -9161,10 +9167,10 @@
       <c r="C329" s="8">
         <v>5</v>
       </c>
-      <c r="D329" s="2">
-        <v>0</v>
-      </c>
-      <c r="E329" s="2">
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
         <v>0</v>
       </c>
       <c r="F329">
@@ -9184,10 +9190,10 @@
       <c r="C330" s="8">
         <v>5</v>
       </c>
-      <c r="D330" s="2">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2">
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
         <v>0</v>
       </c>
       <c r="F330">
@@ -9207,10 +9213,10 @@
       <c r="C331" s="8">
         <v>5</v>
       </c>
-      <c r="D331" s="2">
-        <v>0</v>
-      </c>
-      <c r="E331" s="2">
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
         <v>0</v>
       </c>
       <c r="F331">
@@ -9233,10 +9239,10 @@
       <c r="C332" s="8">
         <v>5</v>
       </c>
-      <c r="D332" s="2">
-        <v>0</v>
-      </c>
-      <c r="E332" s="2">
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
         <v>0</v>
       </c>
       <c r="F332">
@@ -9256,10 +9262,10 @@
       <c r="C333" s="8">
         <v>5</v>
       </c>
-      <c r="D333" s="2">
-        <v>0</v>
-      </c>
-      <c r="E333" s="2">
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
         <v>0</v>
       </c>
       <c r="F333">
@@ -9282,10 +9288,10 @@
       <c r="C334" s="8">
         <v>5</v>
       </c>
-      <c r="D334" s="2">
-        <v>0</v>
-      </c>
-      <c r="E334" s="2">
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
         <v>0</v>
       </c>
       <c r="F334">
@@ -9305,10 +9311,10 @@
       <c r="C335" s="8">
         <v>5</v>
       </c>
-      <c r="D335" s="2">
-        <v>0</v>
-      </c>
-      <c r="E335" s="2">
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
         <v>0</v>
       </c>
       <c r="F335">
@@ -9328,10 +9334,10 @@
       <c r="C336" s="8">
         <v>5</v>
       </c>
-      <c r="D336" s="2">
-        <v>0</v>
-      </c>
-      <c r="E336" s="2">
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
         <v>0</v>
       </c>
       <c r="F336">
@@ -9354,10 +9360,10 @@
       <c r="C337" s="8">
         <v>5</v>
       </c>
-      <c r="D337" s="2">
-        <v>0</v>
-      </c>
-      <c r="E337" s="2">
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
         <v>0</v>
       </c>
       <c r="F337">
@@ -9377,10 +9383,10 @@
       <c r="C338" s="8">
         <v>5</v>
       </c>
-      <c r="D338" s="2">
-        <v>0</v>
-      </c>
-      <c r="E338" s="2">
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
         <v>0</v>
       </c>
       <c r="F338">
@@ -9403,10 +9409,10 @@
       <c r="C339" s="8">
         <v>5</v>
       </c>
-      <c r="D339" s="2">
-        <v>0</v>
-      </c>
-      <c r="E339" s="2">
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
         <v>0</v>
       </c>
       <c r="F339">
@@ -9426,10 +9432,10 @@
       <c r="C340" s="8">
         <v>5</v>
       </c>
-      <c r="D340" s="2">
-        <v>0</v>
-      </c>
-      <c r="E340" s="2">
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
         <v>0</v>
       </c>
       <c r="F340">
@@ -9449,10 +9455,10 @@
       <c r="C341" s="8">
         <v>5</v>
       </c>
-      <c r="D341" s="2">
-        <v>0</v>
-      </c>
-      <c r="E341" s="2">
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
@@ -9475,10 +9481,10 @@
       <c r="C342" s="8">
         <v>5</v>
       </c>
-      <c r="D342" s="2">
-        <v>0</v>
-      </c>
-      <c r="E342" s="2">
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
         <v>0</v>
       </c>
       <c r="F342">
@@ -9498,10 +9504,10 @@
       <c r="C343" s="8">
         <v>5</v>
       </c>
-      <c r="D343" s="2">
-        <v>0</v>
-      </c>
-      <c r="E343" s="2">
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
         <v>0</v>
       </c>
       <c r="F343">
@@ -9524,10 +9530,10 @@
       <c r="C344" s="8">
         <v>5</v>
       </c>
-      <c r="D344" s="2">
-        <v>0</v>
-      </c>
-      <c r="E344" s="2">
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
         <v>0</v>
       </c>
       <c r="F344">
@@ -9547,10 +9553,10 @@
       <c r="C345" s="8">
         <v>5</v>
       </c>
-      <c r="D345" s="2">
-        <v>0</v>
-      </c>
-      <c r="E345" s="2">
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
         <v>0</v>
       </c>
       <c r="F345">
@@ -9570,10 +9576,10 @@
       <c r="C346" s="8">
         <v>5</v>
       </c>
-      <c r="D346" s="2">
-        <v>0</v>
-      </c>
-      <c r="E346" s="2">
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
         <v>0</v>
       </c>
       <c r="F346">
@@ -9596,10 +9602,10 @@
       <c r="C347" s="8">
         <v>5</v>
       </c>
-      <c r="D347" s="2">
-        <v>0</v>
-      </c>
-      <c r="E347" s="2">
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
         <v>0</v>
       </c>
       <c r="F347">
@@ -9619,10 +9625,10 @@
       <c r="C348" s="8">
         <v>5</v>
       </c>
-      <c r="D348" s="2">
-        <v>0</v>
-      </c>
-      <c r="E348" s="2">
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
         <v>0</v>
       </c>
       <c r="F348">
@@ -9645,10 +9651,10 @@
       <c r="C349" s="8">
         <v>5</v>
       </c>
-      <c r="D349" s="2">
-        <v>0</v>
-      </c>
-      <c r="E349" s="2">
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
         <v>0</v>
       </c>
       <c r="F349">
@@ -9668,10 +9674,10 @@
       <c r="C350" s="8">
         <v>5</v>
       </c>
-      <c r="D350" s="2">
-        <v>0</v>
-      </c>
-      <c r="E350" s="2">
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
         <v>0</v>
       </c>
       <c r="F350">
@@ -9691,10 +9697,10 @@
       <c r="C351" s="8">
         <v>5</v>
       </c>
-      <c r="D351" s="2">
-        <v>0</v>
-      </c>
-      <c r="E351" s="2">
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
         <v>0</v>
       </c>
       <c r="F351">
@@ -9717,10 +9723,10 @@
       <c r="C352" s="8">
         <v>5</v>
       </c>
-      <c r="D352" s="2">
-        <v>0</v>
-      </c>
-      <c r="E352" s="2">
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
         <v>0</v>
       </c>
       <c r="F352">
@@ -9740,10 +9746,10 @@
       <c r="C353" s="8">
         <v>5</v>
       </c>
-      <c r="D353" s="2">
-        <v>0</v>
-      </c>
-      <c r="E353" s="2">
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
         <v>0</v>
       </c>
       <c r="F353">
@@ -9766,10 +9772,10 @@
       <c r="C354" s="8">
         <v>5</v>
       </c>
-      <c r="D354" s="2">
-        <v>0</v>
-      </c>
-      <c r="E354" s="2">
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
         <v>0</v>
       </c>
       <c r="F354">
@@ -9789,10 +9795,10 @@
       <c r="C355" s="8">
         <v>5</v>
       </c>
-      <c r="D355" s="2">
-        <v>0</v>
-      </c>
-      <c r="E355" s="2">
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
         <v>0</v>
       </c>
       <c r="F355">
@@ -9812,10 +9818,10 @@
       <c r="C356" s="8">
         <v>5</v>
       </c>
-      <c r="D356" s="2">
-        <v>0</v>
-      </c>
-      <c r="E356" s="2">
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
         <v>0</v>
       </c>
       <c r="F356">
@@ -9838,10 +9844,10 @@
       <c r="C357" s="8">
         <v>5</v>
       </c>
-      <c r="D357" s="2">
-        <v>0</v>
-      </c>
-      <c r="E357" s="2">
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
         <v>0</v>
       </c>
       <c r="F357">
@@ -9861,10 +9867,10 @@
       <c r="C358" s="8">
         <v>5</v>
       </c>
-      <c r="D358" s="2">
-        <v>0</v>
-      </c>
-      <c r="E358" s="2">
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
         <v>0</v>
       </c>
       <c r="F358">
@@ -9887,10 +9893,10 @@
       <c r="C359" s="8">
         <v>5</v>
       </c>
-      <c r="D359" s="2">
-        <v>0</v>
-      </c>
-      <c r="E359" s="2">
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
         <v>0</v>
       </c>
       <c r="F359">
@@ -9910,10 +9916,10 @@
       <c r="C360" s="8">
         <v>5</v>
       </c>
-      <c r="D360" s="2">
-        <v>0</v>
-      </c>
-      <c r="E360" s="2">
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
         <v>0</v>
       </c>
       <c r="F360">
@@ -9933,10 +9939,10 @@
       <c r="C361" s="8">
         <v>5</v>
       </c>
-      <c r="D361" s="2">
-        <v>0</v>
-      </c>
-      <c r="E361" s="2">
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
         <v>0</v>
       </c>
       <c r="F361">
@@ -9959,10 +9965,10 @@
       <c r="C362" s="8">
         <v>5</v>
       </c>
-      <c r="D362" s="2">
-        <v>0</v>
-      </c>
-      <c r="E362" s="2">
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
         <v>0</v>
       </c>
       <c r="F362">
@@ -9982,10 +9988,10 @@
       <c r="C363" s="8">
         <v>5</v>
       </c>
-      <c r="D363" s="2">
-        <v>0</v>
-      </c>
-      <c r="E363" s="2">
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
         <v>0</v>
       </c>
       <c r="F363">
@@ -10008,10 +10014,10 @@
       <c r="C364" s="8">
         <v>5</v>
       </c>
-      <c r="D364" s="2">
-        <v>0</v>
-      </c>
-      <c r="E364" s="2">
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
         <v>0</v>
       </c>
       <c r="F364">
@@ -10031,10 +10037,10 @@
       <c r="C365" s="8">
         <v>5</v>
       </c>
-      <c r="D365" s="2">
-        <v>0</v>
-      </c>
-      <c r="E365" s="2">
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
         <v>0</v>
       </c>
       <c r="F365">
@@ -10054,10 +10060,10 @@
       <c r="C366" s="8">
         <v>5</v>
       </c>
-      <c r="D366" s="2">
-        <v>0</v>
-      </c>
-      <c r="E366" s="2">
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
         <v>0</v>
       </c>
       <c r="F366">
@@ -10080,10 +10086,10 @@
       <c r="C367" s="8">
         <v>5</v>
       </c>
-      <c r="D367" s="2">
-        <v>0</v>
-      </c>
-      <c r="E367" s="2">
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
         <v>0</v>
       </c>
       <c r="F367">
